--- a/biology/Botanique/Torilis_arvensis/Torilis_arvensis.xlsx
+++ b/biology/Botanique/Torilis_arvensis/Torilis_arvensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Torilis des champs (Torilis arvensis) est une plante annuelle herbacée de la famille des Apiacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante annuelle de 30 à 100 cm de hauteur, tige dressée, non renflée sous les nœuds, très rameuse, d'un vert sombre (grisâtre à reflets bordeaux), pas de poils sous les gaines foliaires (à l'inverse de la carotte sauvage) ni de bractées sous l'inflorescence (à l'inverse du Torilis japonica). Les feuilles deux à trois fois divisées, ont un segment terminal plus long.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bords des cultures, friches sèches, talus. Sols calcaires.
 </t>
@@ -573,7 +589,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De mai à septembre. L'inflorescence est composée de fleurs à 5 pétales blancs longuement pédonculés.
 </t>
@@ -604,14 +622,16 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 février 2015)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 février 2015) :
 sous-espèce Torilis arvensis subsp. arvensis
 sous-espèce Torilis arvensis subsp. purpurea
-Selon The Plant List            (8 février 2015)[1] :
+Selon The Plant List            (8 février 2015) :
 sous-espèce Torilis arvensis subsp. heterophylla (Guss.) Thell.
-Selon Tropicos                                           (8 février 2015)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 février 2015) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Torilis arvensis subsp. arvensis
 sous-espèce Torilis arvensis subsp. heterophylla (Guss.) Thell.
 sous-espèce Torilis arvensis subsp. neglecta Thell.
